--- a/inst/concepts/PPS_concepts_reviewed1702026.xlsx
+++ b/inst/concepts/PPS_concepts_reviewed1702026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpoliti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ablack/darwin/PregnancyIdentifier/inst/concepts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C938B-39E1-7449-A1EF-A1E9903C0221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F0B2A0-5164-DE42-B12A-7FD562AEB73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="780" windowWidth="31760" windowHeight="19520" xr2:uid="{46FD3BAC-239C-EC42-AEF6-E9789FFC6F05}"/>
+    <workbookView xWindow="5260" yWindow="780" windowWidth="31760" windowHeight="19520" xr2:uid="{46FD3BAC-239C-EC42-AEF6-E9789FFC6F05}"/>
   </bookViews>
   <sheets>
     <sheet name="Final PPS" sheetId="2" r:id="rId1"/>
@@ -230,24 +230,6 @@
     <t>Uncertain viability of pregnancy</t>
   </si>
   <si>
-    <t>domain_concept_name</t>
-  </si>
-  <si>
-    <t>domain_concept_id</t>
-  </si>
-  <si>
-    <t>min_month</t>
-  </si>
-  <si>
-    <t>max_month</t>
-  </si>
-  <si>
-    <t>GT_month_midpoint</t>
-  </si>
-  <si>
-    <t>Gestational_TimeSpan_months</t>
-  </si>
-  <si>
     <t>Gestation period, 41 weeks</t>
   </si>
   <si>
@@ -426,6 +408,24 @@
   </si>
   <si>
     <t>Cervical length scanning at 24 weeks</t>
+  </si>
+  <si>
+    <t>pps_concept_name</t>
+  </si>
+  <si>
+    <t>pps_concept_id</t>
+  </si>
+  <si>
+    <t>pps_min_month</t>
+  </si>
+  <si>
+    <t>pps_max_month</t>
+  </si>
+  <si>
+    <t>pps_gestational_timespan_months</t>
+  </si>
+  <si>
+    <t>pps_gt_month_midpoint</t>
   </si>
 </sst>
 </file>
@@ -893,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088A9DDA-C1DE-964F-B8E8-734DAA3972FC}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,22 +909,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -989,7 +989,7 @@
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4">
         <v>4014768</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B7" s="4">
         <v>4146045</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>4015296</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4">
         <v>4014149</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4">
         <v>4014150</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4">
         <v>44808979</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <v>4015141</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B14" s="4">
         <v>44808980</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B15" s="4">
         <v>4014433</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" s="4">
         <v>4014151</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4">
         <v>44808981</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B18" s="4">
         <v>4015297</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4">
         <v>4015298</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B20" s="4">
         <v>4014434</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4">
         <v>4015299</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B22" s="4">
         <v>4015142</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B23" s="4">
         <v>4014152</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B24" s="4">
         <v>4015300</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B25" s="4">
         <v>4015301</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B26" s="4">
         <v>4015302</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4">
         <v>4014435</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4">
         <v>4143646</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4">
         <v>40479665</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4">
         <v>46273020</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B37" s="4">
         <v>4290009</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4">
         <v>4313026</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B39" s="4">
         <v>4270513</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B45" s="4">
         <v>4181468</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4">
         <v>4178165</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="53" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B53" s="12">
         <v>4324063</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B58" s="4">
         <v>439922</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B75">
         <v>442769</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B76">
         <v>444067</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B78" s="4">
         <v>4245908</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4">
         <v>3174212</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="86" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B86" s="4">
         <v>4336958</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B89" s="4">
         <v>4041878</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="93" spans="1:6" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B93" s="4">
         <v>3020321</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B96" s="4">
         <v>4180111</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B99" s="4">
         <v>3050401</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B100" s="4">
         <v>36303380</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B101" s="4">
         <v>40770418</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="102" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4">
         <v>3052868</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B103" s="4">
         <v>3049207</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B109" s="4">
         <v>3657563</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B110" s="4">
         <v>4252252</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B111" s="4">
         <v>4327745</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B112" s="4">
         <v>40486918</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B113" s="4">
         <v>2793349</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B114" s="14">
         <v>4061803</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B115" s="14">
         <v>4061534</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="116" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B116" s="15">
         <v>4141415</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B117" s="14">
         <v>4060265</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B118" s="14">
         <v>4149449</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B119" s="14">
         <v>4149457</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B120" s="14">
         <v>46271955</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B121" s="14">
         <v>46271814</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B122" s="14">
         <v>4149451</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B123" s="17">
         <v>4078286</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B124" s="14">
         <v>44790204</v>
